--- a/Project1/s03_2.xlsx
+++ b/Project1/s03_2.xlsx
@@ -386,2382 +386,2382 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>36.59489175711357</v>
+        <v>97.32270947470646</v>
       </c>
       <c r="B2">
-        <v>35.63682460527827</v>
+        <v>95.5985463826088</v>
       </c>
       <c r="C2">
-        <v>37.55295890894886</v>
+        <v>99.04687256680411</v>
       </c>
       <c r="D2">
-        <v>35.12965449093296</v>
+        <v>94.68582957471698</v>
       </c>
       <c r="E2">
-        <v>38.06012902329417</v>
+        <v>99.95958937469594</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>37.19863005603203</v>
+        <v>97.32270947470646</v>
       </c>
       <c r="B3">
-        <v>36.03397684171557</v>
+        <v>94.87009655509075</v>
       </c>
       <c r="C3">
-        <v>38.36328327034849</v>
+        <v>99.77532239432216</v>
       </c>
       <c r="D3">
-        <v>35.41744667183552</v>
+        <v>93.57176170194037</v>
       </c>
       <c r="E3">
-        <v>38.97981344022854</v>
+        <v>101.0736572474725</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>37.29738512381947</v>
+        <v>97.32270947470646</v>
       </c>
       <c r="B4">
-        <v>35.94009863904276</v>
+        <v>94.31307795261277</v>
       </c>
       <c r="C4">
-        <v>38.65467160859618</v>
+        <v>100.3323409968001</v>
       </c>
       <c r="D4">
-        <v>35.22159457555944</v>
+        <v>92.71987526293334</v>
       </c>
       <c r="E4">
-        <v>39.37317567207949</v>
+        <v>101.9255436864796</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>37.43248711122541</v>
+        <v>97.32270947470646</v>
       </c>
       <c r="B5">
-        <v>35.89049436370401</v>
+        <v>93.84413883950381</v>
       </c>
       <c r="C5">
-        <v>38.97447985874682</v>
+        <v>100.8012801099091</v>
       </c>
       <c r="D5">
-        <v>35.07421271102241</v>
+        <v>92.00269477847493</v>
       </c>
       <c r="E5">
-        <v>39.79076151142842</v>
+        <v>102.642724170938</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>37.30167919905939</v>
+        <v>97.32270947470646</v>
       </c>
       <c r="B6">
-        <v>35.57965054246444</v>
+        <v>93.43130543125271</v>
       </c>
       <c r="C6">
-        <v>39.02370785565434</v>
+        <v>101.2141135181602</v>
       </c>
       <c r="D6">
-        <v>34.66806363647552</v>
+        <v>91.37132056495021</v>
       </c>
       <c r="E6">
-        <v>39.93529476164327</v>
+        <v>103.2740983844627</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>37.08870759094711</v>
+        <v>97.32270947470646</v>
       </c>
       <c r="B7">
-        <v>35.18934710028254</v>
+        <v>93.0582520420754</v>
       </c>
       <c r="C7">
-        <v>38.98806808161168</v>
+        <v>101.5871669073375</v>
       </c>
       <c r="D7">
-        <v>34.18388639182594</v>
+        <v>90.8007846405628</v>
       </c>
       <c r="E7">
-        <v>39.99352879006828</v>
+        <v>103.8446343088501</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>37.20554137242191</v>
+        <v>97.32270947470646</v>
       </c>
       <c r="B8">
-        <v>35.13027636258295</v>
+        <v>92.71530576328324</v>
       </c>
       <c r="C8">
-        <v>39.28080638226088</v>
+        <v>101.9301131861297</v>
       </c>
       <c r="D8">
-        <v>34.03169742652337</v>
+        <v>90.27629356807206</v>
       </c>
       <c r="E8">
-        <v>40.37938531832046</v>
+        <v>104.3691253813409</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>37.49551812426779</v>
+        <v>97.32270947470646</v>
       </c>
       <c r="B9">
-        <v>35.24490333128554</v>
+        <v>92.39617512230917</v>
       </c>
       <c r="C9">
-        <v>39.74613291725004</v>
+        <v>102.2492438271037</v>
       </c>
       <c r="D9">
-        <v>34.05349982713921</v>
+        <v>89.78822537051455</v>
       </c>
       <c r="E9">
-        <v>40.93753642139637</v>
+        <v>104.8571935788984</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>37.25358975908496</v>
+        <v>97.32270947470646</v>
       </c>
       <c r="B10">
-        <v>34.82756069515214</v>
+        <v>92.09649550179407</v>
       </c>
       <c r="C10">
-        <v>39.67961882301778</v>
+        <v>102.5489234476188</v>
       </c>
       <c r="D10">
-        <v>33.54329848513602</v>
+        <v>89.32990494166734</v>
       </c>
       <c r="E10">
-        <v>40.9638810330339</v>
+        <v>105.3155140077456</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>37.75364907545686</v>
+        <v>97.32270947470646</v>
       </c>
       <c r="B11">
-        <v>35.15168912791852</v>
+        <v>91.81309204189148</v>
       </c>
       <c r="C11">
-        <v>40.35560902299519</v>
+        <v>102.8323269075214</v>
       </c>
       <c r="D11">
-        <v>33.77429473381263</v>
+        <v>88.8964767524028</v>
       </c>
       <c r="E11">
-        <v>41.73300341710108</v>
+        <v>105.7489421970101</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>37.61592648684425</v>
+        <v>97.32270947470646</v>
       </c>
       <c r="B12">
-        <v>34.83718161107845</v>
+        <v>91.54356974449635</v>
       </c>
       <c r="C12">
-        <v>40.39467136261004</v>
+        <v>103.1018492049166</v>
       </c>
       <c r="D12">
-        <v>33.36620292896947</v>
+        <v>88.48427796920328</v>
       </c>
       <c r="E12">
-        <v>41.86565004471902</v>
+        <v>106.1611409802096</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>37.70100339099012</v>
+        <v>97.32270947470646</v>
       </c>
       <c r="B13">
-        <v>34.74436339656858</v>
+        <v>91.28606903596845</v>
       </c>
       <c r="C13">
-        <v>40.65764338541165</v>
+        <v>103.3593499134445</v>
       </c>
       <c r="D13">
-        <v>33.17921272714403</v>
+        <v>88.09046461960639</v>
       </c>
       <c r="E13">
-        <v>42.22279405483621</v>
+        <v>106.5549543298065</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>37.64433905793373</v>
+        <v>97.32270947470646</v>
       </c>
       <c r="B14">
-        <v>34.42144773368131</v>
+        <v>91.03911181477301</v>
       </c>
       <c r="C14">
-        <v>40.86723038218614</v>
+        <v>103.6063071346399</v>
       </c>
       <c r="D14">
-        <v>32.71535212408608</v>
+        <v>87.71277614238974</v>
       </c>
       <c r="E14">
-        <v>42.57332599178137</v>
+        <v>106.9326428070232</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>38.24807735685219</v>
+        <v>97.32270947470646</v>
       </c>
       <c r="B15">
-        <v>34.84914725449879</v>
+        <v>90.80150013001929</v>
       </c>
       <c r="C15">
-        <v>41.6470074592056</v>
+        <v>103.8439188193936</v>
       </c>
       <c r="D15">
-        <v>33.049862344918</v>
+        <v>87.34938042976755</v>
       </c>
       <c r="E15">
-        <v>43.44629236878639</v>
+        <v>107.2960385196454</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>38.34683242463963</v>
+        <v>97.32270947470646</v>
       </c>
       <c r="B16">
-        <v>34.76985687004971</v>
+        <v>90.57224703998769</v>
       </c>
       <c r="C16">
-        <v>41.92380797922955</v>
+        <v>104.0731719094252</v>
       </c>
       <c r="D16">
-        <v>32.87632039136285</v>
+        <v>86.99876808463299</v>
       </c>
       <c r="E16">
-        <v>43.81734445791641</v>
+        <v>107.6466508647799</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>38.48193441204558</v>
+        <v>97.32270947470646</v>
       </c>
       <c r="B17">
-        <v>34.72486989172469</v>
+        <v>90.35052797621809</v>
       </c>
       <c r="C17">
-        <v>42.23899893236646</v>
+        <v>104.2948909731948</v>
       </c>
       <c r="D17">
-        <v>32.73600007323265</v>
+        <v>86.65967803835017</v>
       </c>
       <c r="E17">
-        <v>44.2278687508585</v>
+        <v>107.9857409110627</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>38.35112649987956</v>
+        <v>97.32270947470646</v>
       </c>
       <c r="B18">
-        <v>34.41190254008651</v>
+        <v>90.13564563658886</v>
       </c>
       <c r="C18">
-        <v>42.2903504596726</v>
+        <v>104.5097733128241</v>
       </c>
       <c r="D18">
-        <v>32.32660333919763</v>
+        <v>86.33104385935167</v>
       </c>
       <c r="E18">
-        <v>44.37564966056148</v>
+        <v>108.3143750900612</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>38.13815489176727</v>
+        <v>97.32270947470646</v>
       </c>
       <c r="B19">
-        <v>34.01468191448731</v>
+        <v>89.92700407369895</v>
       </c>
       <c r="C19">
-        <v>42.26162786904724</v>
+        <v>104.718414875714</v>
       </c>
       <c r="D19">
-        <v>31.83184717541841</v>
+        <v>86.01195412473875</v>
       </c>
       <c r="E19">
-        <v>44.44446260811613</v>
+        <v>108.6334648246742</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>38.25498867324208</v>
+        <v>97.32270947470646</v>
       </c>
       <c r="B20">
-        <v>33.9451642839811</v>
+        <v>89.72408919574754</v>
       </c>
       <c r="C20">
-        <v>42.56481306250305</v>
+        <v>104.9213297536654</v>
       </c>
       <c r="D20">
-        <v>31.66368106631468</v>
+        <v>85.70162259895025</v>
       </c>
       <c r="E20">
-        <v>44.84629628016947</v>
+        <v>108.9437963504627</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>38.54496542508795</v>
+        <v>97.32270947470646</v>
       </c>
       <c r="B21">
-        <v>34.04667947256084</v>
+        <v>89.5264538408063</v>
       </c>
       <c r="C21">
-        <v>43.04325137761506</v>
+        <v>105.1189651086066</v>
       </c>
       <c r="D21">
-        <v>31.66543072968224</v>
+        <v>85.39936540683173</v>
       </c>
       <c r="E21">
-        <v>45.42450012049366</v>
+        <v>109.2460535425812</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>38.30303705990512</v>
+        <v>97.32270947470646</v>
       </c>
       <c r="B22">
-        <v>33.61417572507943</v>
+        <v>89.33370617802207</v>
       </c>
       <c r="C22">
-        <v>42.99189839473081</v>
+        <v>105.3117127713908</v>
       </c>
       <c r="D22">
-        <v>31.13204246878586</v>
+        <v>85.10458329480581</v>
       </c>
       <c r="E22">
-        <v>45.47403165102438</v>
+        <v>109.5408356546071</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>38.80309637627702</v>
+        <v>97.32270947470646</v>
       </c>
       <c r="B23">
-        <v>33.92154548794309</v>
+        <v>89.14550057192379</v>
       </c>
       <c r="C23">
-        <v>43.68464726461095</v>
+        <v>105.4999183774891</v>
       </c>
       <c r="D23">
-        <v>31.33740854360039</v>
+        <v>84.81674765903534</v>
       </c>
       <c r="E23">
-        <v>46.26878420895365</v>
+        <v>109.8286712903776</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>38.66537378766441</v>
+        <v>97.32270947470646</v>
       </c>
       <c r="B24">
-        <v>33.58902151710857</v>
+        <v>88.96153029919166</v>
       </c>
       <c r="C24">
-        <v>43.74172605822025</v>
+        <v>105.6838886502212</v>
       </c>
       <c r="D24">
-        <v>30.90176295012507</v>
+        <v>84.53538940668305</v>
       </c>
       <c r="E24">
-        <v>46.42898462520375</v>
+        <v>110.1100295427299</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>38.75045069181028</v>
+        <v>97.32270947470646</v>
       </c>
       <c r="B25">
-        <v>33.47718974577912</v>
+        <v>88.78152167848184</v>
       </c>
       <c r="C25">
-        <v>44.02371163784144</v>
+        <v>105.8638972709311</v>
       </c>
       <c r="D25">
-        <v>30.68569402249077</v>
+        <v>84.26008997825306</v>
       </c>
       <c r="E25">
-        <v>46.81520736112979</v>
+        <v>110.3853289711599</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>38.69378635875388</v>
+        <v>97.32270947470646</v>
       </c>
       <c r="B26">
-        <v>33.15322497927983</v>
+        <v>88.60522929201086</v>
       </c>
       <c r="C26">
-        <v>44.23434773822793</v>
+        <v>106.0401896574021</v>
       </c>
       <c r="D26">
-        <v>30.22022895391549</v>
+        <v>83.99047403963502</v>
       </c>
       <c r="E26">
-        <v>47.16734376359228</v>
+        <v>110.6549449097779</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>39.29752465767236</v>
+        <v>97.32270947470646</v>
       </c>
       <c r="B27">
-        <v>33.55825282580014</v>
+        <v>88.43243206053064</v>
       </c>
       <c r="C27">
-        <v>45.03679648954457</v>
+        <v>106.2129868888823</v>
       </c>
       <c r="D27">
-        <v>30.52006584104288</v>
+        <v>83.72620347929627</v>
       </c>
       <c r="E27">
-        <v>48.07498347430183</v>
+        <v>110.9192154701166</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>39.39627972545979</v>
+        <v>97.32270947470646</v>
       </c>
       <c r="B28">
-        <v>33.45607444954628</v>
+        <v>88.26292999249395</v>
       </c>
       <c r="C28">
-        <v>45.33648500137329</v>
+        <v>106.382488956919</v>
       </c>
       <c r="D28">
-        <v>30.31151972470421</v>
+        <v>83.46697243655959</v>
       </c>
       <c r="E28">
-        <v>48.48103972621536</v>
+        <v>111.1784465128533</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>39.53138171286573</v>
+        <v>97.32270947470646</v>
       </c>
       <c r="B29">
-        <v>33.38804112578375</v>
+        <v>88.09654147105333</v>
       </c>
       <c r="C29">
-        <v>45.67472229994771</v>
+        <v>106.5488774783596</v>
       </c>
       <c r="D29">
-        <v>30.1359530628082</v>
+        <v>83.21250315242592</v>
       </c>
       <c r="E29">
-        <v>48.92681036292326</v>
+        <v>111.432915796987</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>39.40057380069971</v>
+        <v>97.32270947470646</v>
       </c>
       <c r="B30">
-        <v>33.05191676189382</v>
+        <v>87.93310097397828</v>
       </c>
       <c r="C30">
-        <v>45.7492308395056</v>
+        <v>106.7123179754346</v>
       </c>
       <c r="D30">
-        <v>29.69114073472044</v>
+        <v>82.96254248248886</v>
       </c>
       <c r="E30">
-        <v>49.11000686667899</v>
+        <v>111.6828764669241</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>39.18760219258743</v>
+        <v>97.32270947470646</v>
       </c>
       <c r="B31">
-        <v>32.63146788249079</v>
+        <v>87.77245714493731</v>
       </c>
       <c r="C31">
-        <v>45.74373650268407</v>
+        <v>106.8729618044756</v>
       </c>
       <c r="D31">
-        <v>29.1608600223368</v>
+        <v>82.71685894721489</v>
       </c>
       <c r="E31">
-        <v>49.21434436283806</v>
+        <v>111.928560002198</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>39.30443597406223</v>
+        <v>97.32270947470646</v>
       </c>
       <c r="B32">
-        <v>32.53868348484181</v>
+        <v>87.61447115214891</v>
       </c>
       <c r="C32">
-        <v>46.07018846328265</v>
+        <v>107.030947797264</v>
       </c>
       <c r="D32">
-        <v>28.95711046355959</v>
+        <v>82.4752402217167</v>
       </c>
       <c r="E32">
-        <v>49.65176148456487</v>
+        <v>112.1701787276962</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>39.59441272590811</v>
+        <v>97.32270947470646</v>
       </c>
       <c r="B33">
-        <v>32.61692065167107</v>
+        <v>87.45901528374083</v>
       </c>
       <c r="C33">
-        <v>46.57190480014514</v>
+        <v>107.1864036656721</v>
       </c>
       <c r="D33">
-        <v>28.92325946481655</v>
+        <v>82.23749098754074</v>
       </c>
       <c r="E33">
-        <v>50.26556598699967</v>
+        <v>112.4079279618722</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>39.35248436072528</v>
+        <v>97.32270947470646</v>
       </c>
       <c r="B34">
-        <v>32.16115038965045</v>
+        <v>87.30597173938548</v>
       </c>
       <c r="C34">
-        <v>46.5438183318001</v>
+        <v>107.3394472100274</v>
       </c>
       <c r="D34">
-        <v>28.3542881405705</v>
+        <v>82.00343108463284</v>
       </c>
       <c r="E34">
-        <v>50.35068058088005</v>
+        <v>112.6419878647801</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>39.85254367709717</v>
+        <v>97.32270947470646</v>
       </c>
       <c r="B35">
-        <v>32.4452841874183</v>
+        <v>87.15523158569596</v>
       </c>
       <c r="C35">
-        <v>47.25980316677605</v>
+        <v>107.490187363717</v>
       </c>
       <c r="D35">
-        <v>28.52411787337724</v>
+        <v>81.77289391375439</v>
       </c>
       <c r="E35">
-        <v>51.18096948081711</v>
+        <v>112.8725250356585</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>39.71482108848456</v>
+        <v>97.32270947470646</v>
       </c>
       <c r="B36">
-        <v>32.0895707498194</v>
+        <v>87.00669384904791</v>
       </c>
       <c r="C36">
-        <v>47.34007142714972</v>
+        <v>107.638725100365</v>
       </c>
       <c r="D36">
-        <v>28.05300705095535</v>
+        <v>81.54572504907311</v>
       </c>
       <c r="E36">
-        <v>51.37663512601377</v>
+        <v>113.0996939003398</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>39.79989799263043</v>
+        <v>97.32270947470646</v>
       </c>
       <c r="B37">
-        <v>31.95460937380168</v>
+        <v>86.86026472435553</v>
       </c>
       <c r="C37">
-        <v>47.64518661145919</v>
+        <v>107.7851542250574</v>
       </c>
       <c r="D37">
-        <v>27.80156444551949</v>
+        <v>81.32178102809038</v>
       </c>
       <c r="E37">
-        <v>51.79823153974138</v>
+        <v>113.3236379213225</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>39.74323365957405</v>
+        <v>97.32270947470646</v>
       </c>
       <c r="B38">
-        <v>31.61717222933194</v>
+        <v>86.71585688218592</v>
       </c>
       <c r="C38">
-        <v>47.86929508981616</v>
+        <v>107.929562067227</v>
       </c>
       <c r="D38">
-        <v>27.31549515287852</v>
+        <v>81.10092829196398</v>
       </c>
       <c r="E38">
-        <v>52.17097216626957</v>
+        <v>113.5444906574489</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>40.34697195849251</v>
+        <v>97.32270947470646</v>
       </c>
       <c r="B39">
-        <v>31.99840507349722</v>
+        <v>86.57338885967343</v>
       </c>
       <c r="C39">
-        <v>48.6955388434878</v>
+        <v>108.0720300897395</v>
       </c>
       <c r="D39">
-        <v>27.57894072429006</v>
+        <v>80.88304225399216</v>
       </c>
       <c r="E39">
-        <v>53.11500319269496</v>
+        <v>113.7623766954208</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>40.44572702627995</v>
+        <v>97.32270947470646</v>
       </c>
       <c r="B40">
-        <v>31.87258953918477</v>
+        <v>86.43278452317038</v>
       </c>
       <c r="C40">
-        <v>49.01886451337513</v>
+        <v>108.2126344262425</v>
       </c>
       <c r="D40">
-        <v>27.33424469425513</v>
+        <v>80.6680064778086</v>
       </c>
       <c r="E40">
-        <v>53.55720935830476</v>
+        <v>113.9774124716043</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>40.58082901368589</v>
+        <v>97.32270947470646</v>
       </c>
       <c r="B41">
-        <v>31.78107635376288</v>
+        <v>86.29397259256976</v>
       </c>
       <c r="C41">
-        <v>49.3805816736089</v>
+        <v>108.3514463568432</v>
       </c>
       <c r="D41">
-        <v>27.12276868274606</v>
+        <v>80.45571194989699</v>
       </c>
       <c r="E41">
-        <v>54.03888934462573</v>
+        <v>114.1897069995159</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>40.45002110151987</v>
+        <v>97.32270947470646</v>
       </c>
       <c r="B42">
-        <v>31.42162860715195</v>
+        <v>86.15688621886382</v>
       </c>
       <c r="C42">
-        <v>49.4784135958878</v>
+        <v>108.4885327305491</v>
       </c>
       <c r="D42">
-        <v>26.64228631892986</v>
+        <v>80.24605643352245</v>
       </c>
       <c r="E42">
-        <v>54.25775588410989</v>
+        <v>114.3993625158905</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>40.23704949340759</v>
+        <v>97.32270947470646</v>
       </c>
       <c r="B43">
-        <v>30.97801178251068</v>
+        <v>86.02146260783242</v>
       </c>
       <c r="C43">
-        <v>49.4960872043045</v>
+        <v>108.6239563415805</v>
       </c>
       <c r="D43">
-        <v>26.07657329193354</v>
+        <v>80.03894389321268</v>
       </c>
       <c r="E43">
-        <v>54.39752569488164</v>
+        <v>114.6064750562002</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>40.35388327488239</v>
+        <v>97.32270947470646</v>
       </c>
       <c r="B44">
-        <v>30.86221365021986</v>
+        <v>85.88764268385016</v>
       </c>
       <c r="C44">
-        <v>49.84555289954493</v>
+        <v>108.7577762655628</v>
       </c>
       <c r="D44">
-        <v>25.83762726329864</v>
+        <v>79.83428398059523</v>
       </c>
       <c r="E44">
-        <v>54.87013928646614</v>
+        <v>114.8111349688177</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>40.64386002672827</v>
+        <v>97.32270947470646</v>
       </c>
       <c r="B45">
-        <v>30.91758991338506</v>
+        <v>85.75537078870532</v>
       </c>
       <c r="C45">
-        <v>50.37013014007148</v>
+        <v>108.8900481607076</v>
       </c>
       <c r="D45">
-        <v>25.76881352950829</v>
+        <v>79.63199157378085</v>
       </c>
       <c r="E45">
-        <v>55.51890652394825</v>
+        <v>115.0134273756321</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>40.40193166154544</v>
+        <v>97.32270947470646</v>
       </c>
       <c r="B46">
-        <v>30.43911007409893</v>
+        <v>85.62459441107451</v>
       </c>
       <c r="C46">
-        <v>50.36475324899195</v>
+        <v>109.0208245383384</v>
       </c>
       <c r="D46">
-        <v>25.16511090396997</v>
+        <v>79.43198636363071</v>
       </c>
       <c r="E46">
-        <v>55.63875241912091</v>
+        <v>115.2134325857822</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>40.90199097791734</v>
+        <v>97.32270947470646</v>
       </c>
       <c r="B47">
-        <v>30.70068401507993</v>
+        <v>85.49526394292374</v>
       </c>
       <c r="C47">
-        <v>51.10329794075474</v>
+        <v>109.1501550064892</v>
       </c>
       <c r="D47">
-        <v>25.30043831319691</v>
+        <v>79.23419248120392</v>
       </c>
       <c r="E47">
-        <v>56.50354364263776</v>
+        <v>115.411226468209</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>40.76426838930473</v>
+        <v>97.32270947470646</v>
       </c>
       <c r="B48">
-        <v>30.32255875402416</v>
+        <v>85.36733245963073</v>
       </c>
       <c r="C48">
-        <v>51.20597802458529</v>
+        <v>109.2780864897822</v>
       </c>
       <c r="D48">
-        <v>24.79505156463648</v>
+        <v>79.03853816148363</v>
       </c>
       <c r="E48">
-        <v>56.73348521397297</v>
+        <v>115.6068807879293</v>
       </c>
     </row>
     <row r="49">
       <c r="A49">
-        <v>40.8493452934506</v>
+        <v>97.32270947470646</v>
       </c>
       <c r="B49">
-        <v>30.16533183664133</v>
+        <v>85.2407555210649</v>
       </c>
       <c r="C49">
-        <v>51.53335875025987</v>
+        <v>109.404663428348</v>
       </c>
       <c r="D49">
-        <v>24.5095567522156</v>
+        <v>78.8449554391552</v>
       </c>
       <c r="E49">
-        <v>57.1891338346856</v>
+        <v>115.8004635102577</v>
       </c>
     </row>
     <row r="50">
       <c r="A50">
-        <v>40.79268096039421</v>
+        <v>97.32270947470646</v>
       </c>
       <c r="B50">
-        <v>29.81202540809235</v>
+        <v>85.1154909912341</v>
       </c>
       <c r="C50">
-        <v>51.77333651269607</v>
+        <v>109.5299279581788</v>
       </c>
       <c r="D50">
-        <v>23.99921748395135</v>
+        <v>78.65337987277964</v>
       </c>
       <c r="E50">
-        <v>57.58614443683707</v>
+        <v>115.9920390766333</v>
       </c>
     </row>
     <row r="51">
       <c r="A51">
-        <v>41.39641925931267</v>
+        <v>97.32270947470646</v>
       </c>
       <c r="B51">
-        <v>30.17085399847403</v>
+        <v>84.99149887442299</v>
       </c>
       <c r="C51">
-        <v>52.62198452015132</v>
+        <v>109.6539200749899</v>
       </c>
       <c r="D51">
-        <v>24.2283987060406</v>
+        <v>78.4637502941888</v>
       </c>
       <c r="E51">
-        <v>58.56443981258475</v>
+        <v>116.1816686552241</v>
       </c>
     </row>
     <row r="52">
       <c r="A52">
-        <v>41.49517432710011</v>
+        <v>97.32270947470646</v>
       </c>
       <c r="B52">
-        <v>30.0228030359772</v>
+        <v>84.86874116601635</v>
       </c>
       <c r="C52">
-        <v>52.96754561822302</v>
+        <v>109.7766777833966</v>
       </c>
       <c r="D52">
-        <v>23.94969652315634</v>
+        <v>78.27600858033944</v>
       </c>
       <c r="E52">
-        <v>59.04065213104388</v>
+        <v>116.3694103690735</v>
       </c>
     </row>
     <row r="53">
       <c r="A53">
-        <v>41.63027631450606</v>
+        <v>97.32270947470646</v>
       </c>
       <c r="B53">
-        <v>29.90921920791525</v>
+        <v>84.7471817164304</v>
       </c>
       <c r="C53">
-        <v>53.35133342109685</v>
+        <v>109.8982372329825</v>
       </c>
       <c r="D53">
-        <v>23.70446637654011</v>
+        <v>78.09009944521405</v>
       </c>
       <c r="E53">
-        <v>59.556086252472</v>
+        <v>116.5553195041989</v>
       </c>
     </row>
     <row r="54">
       <c r="A54">
-        <v>41.49946840234004</v>
+        <v>97.32270947470646</v>
       </c>
       <c r="B54">
-        <v>29.52786174831672</v>
+        <v>84.62678610677115</v>
       </c>
       <c r="C54">
-        <v>53.47107505636335</v>
+        <v>110.0186328426418</v>
       </c>
       <c r="D54">
-        <v>23.19047599828125</v>
+        <v>77.9059702496568</v>
       </c>
       <c r="E54">
-        <v>59.80846080639883</v>
+        <v>116.7394486997561</v>
       </c>
     </row>
     <row r="55">
       <c r="A55">
-        <v>41.28649679422775</v>
+        <v>97.32270947470646</v>
       </c>
       <c r="B55">
-        <v>29.0624924552633</v>
+        <v>84.50752153500773</v>
       </c>
       <c r="C55">
-        <v>53.5105011331922</v>
+        <v>110.1378974144052</v>
       </c>
       <c r="D55">
-        <v>22.59149544166778</v>
+        <v>77.72357082729053</v>
       </c>
       <c r="E55">
-        <v>59.98149814678773</v>
+        <v>116.9218481221224</v>
       </c>
     </row>
     <row r="56">
       <c r="A56">
-        <v>41.40333057570255</v>
+        <v>97.32270947470646</v>
       </c>
       <c r="B56">
-        <v>28.92509557284156</v>
+        <v>84.38935671159379</v>
       </c>
       <c r="C56">
-        <v>53.88156557856355</v>
+        <v>110.2560622378191</v>
       </c>
       <c r="D56">
-        <v>22.31951697523963</v>
+        <v>77.54285332488367</v>
       </c>
       <c r="E56">
-        <v>60.48714417616548</v>
+        <v>117.1025656245292</v>
       </c>
     </row>
     <row r="57">
       <c r="A57">
-        <v>41.69330732754843</v>
+        <v>97.32270947470646</v>
       </c>
       <c r="B57">
-        <v>28.95902342577249</v>
+        <v>84.27226176359601</v>
       </c>
       <c r="C57">
-        <v>54.42759122932438</v>
+        <v>110.3731571858169</v>
       </c>
       <c r="D57">
-        <v>22.21790072868659</v>
+        <v>77.36377205572714</v>
       </c>
       <c r="E57">
-        <v>61.16871392641028</v>
+        <v>117.2816468936858</v>
       </c>
     </row>
     <row r="58">
       <c r="A58">
-        <v>41.4513789623656</v>
+        <v>97.32270947470646</v>
       </c>
       <c r="B58">
-        <v>28.4592422758233</v>
+        <v>84.15620814649697</v>
       </c>
       <c r="C58">
-        <v>54.44351564890791</v>
+        <v>110.4892108029159</v>
       </c>
       <c r="D58">
-        <v>21.58162055976604</v>
+        <v>77.18628336474883</v>
       </c>
       <c r="E58">
-        <v>61.32113736496517</v>
+        <v>117.4591355846641</v>
       </c>
     </row>
     <row r="59">
       <c r="A59">
-        <v>41.9514382787375</v>
+        <v>97.32270947470646</v>
       </c>
       <c r="B59">
-        <v>28.6996588945003</v>
+        <v>84.0411685629351</v>
       </c>
       <c r="C59">
-        <v>55.20321766297469</v>
+        <v>110.6042503864778</v>
       </c>
       <c r="D59">
-        <v>21.68459063680283</v>
+        <v>77.01034550423681</v>
       </c>
       <c r="E59">
-        <v>62.21828592067217</v>
+        <v>117.6350734451761</v>
       </c>
     </row>
     <row r="60">
       <c r="A60">
-        <v>41.81371569012489</v>
+        <v>97.32270947470646</v>
       </c>
       <c r="B60">
-        <v>28.30051730925739</v>
+        <v>83.92711688772583</v>
       </c>
       <c r="C60">
-        <v>55.32691407099238</v>
+        <v>110.7183020616871</v>
       </c>
       <c r="D60">
-        <v>21.14706219406351</v>
+        <v>76.83591851916918</v>
       </c>
       <c r="E60">
-        <v>62.48036918618627</v>
+        <v>117.8095004302437</v>
       </c>
     </row>
     <row r="61">
       <c r="A61">
-        <v>41.89879259427076</v>
+        <v>97.32270947470646</v>
       </c>
       <c r="B61">
-        <v>28.12241218910194</v>
+        <v>83.81402809858079</v>
       </c>
       <c r="C61">
-        <v>55.67517299943958</v>
+        <v>110.8313908508321</v>
       </c>
       <c r="D61">
-        <v>20.82963692593842</v>
+        <v>76.66296414125827</v>
       </c>
       <c r="E61">
-        <v>62.9679482626031</v>
+        <v>117.9824548081546</v>
       </c>
     </row>
     <row r="62">
       <c r="A62">
-        <v>41.84212826121437</v>
+        <v>97.32270947470646</v>
       </c>
       <c r="B62">
-        <v>27.75290570155139</v>
+        <v>83.70187821200452</v>
       </c>
       <c r="C62">
-        <v>55.93135082087735</v>
+        <v>110.9435407374084</v>
       </c>
       <c r="D62">
-        <v>20.29452180546179</v>
+        <v>76.49144569091303</v>
       </c>
       <c r="E62">
-        <v>63.38973471696695</v>
+        <v>118.1539732584999</v>
       </c>
     </row>
     <row r="63">
       <c r="A63">
-        <v>42.44586656013284</v>
+        <v>97.32270947470646</v>
       </c>
       <c r="B63">
-        <v>28.09086442492739</v>
+        <v>83.59064422390341</v>
       </c>
       <c r="C63">
-        <v>56.80086869533828</v>
+        <v>111.0547747255095</v>
       </c>
       <c r="D63">
-        <v>20.49178532030224</v>
+        <v>76.32132798640825</v>
       </c>
       <c r="E63">
-        <v>64.39994779996343</v>
+        <v>118.3240909630047</v>
       </c>
     </row>
     <row r="64">
       <c r="A64">
-        <v>42.54462162792027</v>
+        <v>97.32270947470646</v>
       </c>
       <c r="B64">
-        <v>27.92208782930886</v>
+        <v>83.4803040544904</v>
       </c>
       <c r="C64">
-        <v>57.16715542653169</v>
+        <v>111.1651148949225</v>
       </c>
       <c r="D64">
-        <v>20.18138601685924</v>
+        <v>76.1525772596237</v>
       </c>
       <c r="E64">
-        <v>64.90785723898131</v>
+        <v>118.4928416897892</v>
       </c>
     </row>
     <row r="65">
       <c r="A65">
-        <v>42.67972361532622</v>
+        <v>97.32270947470646</v>
       </c>
       <c r="B65">
-        <v>27.78791922517188</v>
+        <v>83.37083649711163</v>
       </c>
       <c r="C65">
-        <v>57.57152800548055</v>
+        <v>111.2745824523013</v>
       </c>
       <c r="D65">
-        <v>19.90467417194729</v>
+        <v>75.98516107778103</v>
       </c>
       <c r="E65">
-        <v>65.45477305870514</v>
+        <v>118.6602578716319</v>
       </c>
     </row>
     <row r="66">
       <c r="A66">
-        <v>42.5489157031602</v>
+        <v>97.32270947470646</v>
       </c>
       <c r="B66">
-        <v>27.38611461956826</v>
+        <v>83.262221170659</v>
       </c>
       <c r="C66">
-        <v>57.71171678675214</v>
+        <v>111.3831977787539</v>
       </c>
       <c r="D66">
-        <v>19.35941258242071</v>
+        <v>75.81904827066529</v>
       </c>
       <c r="E66">
-        <v>65.73841882389968</v>
+        <v>118.8263706787476</v>
       </c>
     </row>
     <row r="67">
       <c r="A67">
-        <v>42.33594409504791</v>
+        <v>97.32270947470646</v>
       </c>
       <c r="B67">
-        <v>26.90043272357185</v>
+        <v>83.15443847526657</v>
       </c>
       <c r="C67">
-        <v>57.77145546652398</v>
+        <v>111.4909804741463</v>
       </c>
       <c r="D67">
-        <v>18.72936658039647</v>
+        <v>75.65420886286819</v>
       </c>
       <c r="E67">
-        <v>65.94252160969936</v>
+        <v>118.9912100865447</v>
       </c>
     </row>
     <row r="68">
       <c r="A68">
-        <v>42.45277787652272</v>
+        <v>97.32270947470646</v>
       </c>
       <c r="B68">
-        <v>26.74285482517224</v>
+        <v>83.04746955101749</v>
       </c>
       <c r="C68">
-        <v>58.1627009278732</v>
+        <v>111.5979493983954</v>
       </c>
       <c r="D68">
-        <v>18.42652391345428</v>
+        <v>75.49061401063599</v>
       </c>
       <c r="E68">
-        <v>66.47903183959116</v>
+        <v>119.1548049387769</v>
       </c>
     </row>
     <row r="69">
       <c r="A69">
-        <v>42.74275462836859</v>
+        <v>97.32270947470646</v>
       </c>
       <c r="B69">
-        <v>26.75673041559763</v>
+        <v>82.94129623941566</v>
       </c>
       <c r="C69">
-        <v>58.72877884113956</v>
+        <v>111.7041227099973</v>
       </c>
       <c r="D69">
-        <v>18.29424037783068</v>
+        <v>75.32823594294544</v>
       </c>
       <c r="E69">
-        <v>67.19126887890651</v>
+        <v>119.3171830064675</v>
       </c>
     </row>
     <row r="70">
       <c r="A70">
-        <v>42.50082626318577</v>
+        <v>97.32270947470646</v>
       </c>
       <c r="B70">
-        <v>26.2370230380982</v>
+        <v>82.83590104739882</v>
       </c>
       <c r="C70">
-        <v>58.76462948827333</v>
+        <v>111.8095179020141</v>
       </c>
       <c r="D70">
-        <v>17.62748567367</v>
+        <v>75.16704790646646</v>
       </c>
       <c r="E70">
-        <v>67.37416685270154</v>
+        <v>119.4783710429464</v>
       </c>
     </row>
     <row r="71">
       <c r="A71">
-        <v>43.00088557955766</v>
+        <v>97.32270947470646</v>
       </c>
       <c r="B71">
-        <v>26.45763685362345</v>
+        <v>82.73126711369136</v>
       </c>
       <c r="C71">
-        <v>59.54413430549187</v>
+        <v>111.9141518357216</v>
       </c>
       <c r="D71">
-        <v>17.70016997679501</v>
+        <v>75.00702411410333</v>
       </c>
       <c r="E71">
-        <v>68.30160118232031</v>
+        <v>119.6383948353096</v>
       </c>
     </row>
     <row r="72">
       <c r="A72">
-        <v>42.86316299094505</v>
+        <v>97.32270947470646</v>
       </c>
       <c r="B72">
-        <v>26.03881338056995</v>
+        <v>82.6273781773134</v>
       </c>
       <c r="C72">
-        <v>59.68751260132015</v>
+        <v>112.0180407720995</v>
       </c>
       <c r="D72">
-        <v>17.13254068420021</v>
+        <v>74.84813969683336</v>
       </c>
       <c r="E72">
-        <v>68.59378529768989</v>
+        <v>119.7972792525796</v>
       </c>
     </row>
     <row r="73">
       <c r="A73">
-        <v>42.94823989509092</v>
+        <v>97.32270947470646</v>
       </c>
       <c r="B73">
-        <v>25.84114487442928</v>
+        <v>82.52421854807972</v>
       </c>
       <c r="C73">
-        <v>60.05533491575257</v>
+        <v>112.1212004013332</v>
       </c>
       <c r="D73">
-        <v>16.78519579912207</v>
+        <v>74.69037065858899</v>
       </c>
       <c r="E73">
-        <v>69.11128399105978</v>
+        <v>119.9550482908239</v>
       </c>
     </row>
     <row r="74">
       <c r="A74">
-        <v>42.89157556203453</v>
+        <v>97.32270947470646</v>
       </c>
       <c r="B74">
-        <v>25.4557025335443</v>
+        <v>82.42177307893697</v>
       </c>
       <c r="C74">
-        <v>60.32744859052477</v>
+        <v>112.2236458704759</v>
       </c>
       <c r="D74">
-        <v>16.22570889413193</v>
+        <v>74.5336938339512</v>
       </c>
       <c r="E74">
-        <v>69.55744222993714</v>
+        <v>120.1117251154617</v>
       </c>
     </row>
     <row r="75">
       <c r="A75">
-        <v>43.49531386095299</v>
+        <v>97.32270947470646</v>
       </c>
       <c r="B75">
-        <v>25.77415454143424</v>
+        <v>82.32002714000103</v>
       </c>
       <c r="C75">
-        <v>61.21647318047174</v>
+        <v>112.3253918094119</v>
       </c>
       <c r="D75">
-        <v>16.39313946206861</v>
+        <v>74.37808684844308</v>
       </c>
       <c r="E75">
-        <v>70.59748825983736</v>
+        <v>120.2673321009698</v>
       </c>
     </row>
     <row r="76">
       <c r="A76">
-        <v>43.59406892874043</v>
+        <v>97.32270947470646</v>
       </c>
       <c r="B76">
-        <v>25.5859910943795</v>
+        <v>82.21896659416866</v>
       </c>
       <c r="C76">
-        <v>61.60214676310137</v>
+        <v>112.4264523552443</v>
       </c>
       <c r="D76">
-        <v>16.05309052796681</v>
+        <v>74.22352808123088</v>
       </c>
       <c r="E76">
-        <v>71.13504732951407</v>
+        <v>120.421890868182</v>
       </c>
     </row>
     <row r="77">
       <c r="A77">
-        <v>43.72917091614637</v>
+        <v>97.32270947470646</v>
       </c>
       <c r="B77">
-        <v>25.43255298448746</v>
+        <v>82.118577774188</v>
       </c>
       <c r="C77">
-        <v>62.02578884780529</v>
+        <v>112.5268411752249</v>
       </c>
       <c r="D77">
-        <v>15.74690851712848</v>
+        <v>74.06999663005674</v>
       </c>
       <c r="E77">
-        <v>71.71143331516427</v>
+        <v>120.5754223193562</v>
       </c>
     </row>
     <row r="78">
       <c r="A78">
-        <v>43.59836300398036</v>
+        <v>97.32270947470646</v>
       </c>
       <c r="B78">
-        <v>25.01159379942432</v>
+        <v>82.01884746108308</v>
       </c>
       <c r="C78">
-        <v>62.1851322085364</v>
+        <v>112.6265714883298</v>
       </c>
       <c r="D78">
-        <v>15.17235252627696</v>
+        <v>73.91747227824146</v>
       </c>
       <c r="E78">
-        <v>72.02437348168377</v>
+        <v>120.7279466711715</v>
       </c>
     </row>
     <row r="79">
       <c r="A79">
-        <v>43.38539139586807</v>
+        <v>97.32270947470646</v>
       </c>
       <c r="B79">
-        <v>24.50686992418085</v>
+        <v>81.91976286383559</v>
       </c>
       <c r="C79">
-        <v>62.26391286755529</v>
+        <v>112.7256560855773</v>
       </c>
       <c r="D79">
-        <v>14.51318433009213</v>
+        <v>73.76593546361065</v>
       </c>
       <c r="E79">
-        <v>72.25759846164401</v>
+        <v>120.8794834858023</v>
       </c>
     </row>
     <row r="80">
       <c r="A80">
-        <v>43.50222517734288</v>
+        <v>97.32270947470646</v>
       </c>
       <c r="B80">
-        <v>24.3303604086973</v>
+        <v>81.8213116002355</v>
       </c>
       <c r="C80">
-        <v>62.67408994598846</v>
+        <v>112.8241073491774</v>
       </c>
       <c r="D80">
-        <v>14.18138825335262</v>
+        <v>73.61536724920828</v>
       </c>
       <c r="E80">
-        <v>72.82306210133314</v>
+        <v>121.0300517002046</v>
       </c>
     </row>
     <row r="81">
       <c r="A81">
-        <v>43.79220192918875</v>
+        <v>97.32270947470646</v>
       </c>
       <c r="B81">
-        <v>24.32541258929424</v>
+        <v>81.72348167881967</v>
       </c>
       <c r="C81">
-        <v>63.25899126908326</v>
+        <v>112.9219372705932</v>
       </c>
       <c r="D81">
-        <v>14.02031679664811</v>
+        <v>73.46574929567402</v>
       </c>
       <c r="E81">
-        <v>73.5640870617294</v>
+        <v>121.1796696537389</v>
       </c>
     </row>
     <row r="82">
       <c r="A82">
-        <v>43.55027356400592</v>
+        <v>97.32270947470646</v>
       </c>
       <c r="B82">
-        <v>23.78698793290931</v>
+        <v>81.62626148182345</v>
       </c>
       <c r="C82">
-        <v>63.31355919510253</v>
+        <v>113.0191574675895</v>
       </c>
       <c r="D82">
-        <v>13.32493648467696</v>
+        <v>73.31706383517013</v>
       </c>
       <c r="E82">
-        <v>73.77561064333487</v>
+        <v>121.3283551142428</v>
       </c>
     </row>
     <row r="83">
       <c r="A83">
-        <v>44.05033288037782</v>
+        <v>97.32270947470646</v>
       </c>
       <c r="B83">
-        <v>23.98898859854481</v>
+        <v>81.52963974907695</v>
       </c>
       <c r="C83">
-        <v>64.11167716221083</v>
+        <v>113.115779200336</v>
       </c>
       <c r="D83">
-        <v>13.3691544315479</v>
+        <v>73.16929364675285</v>
       </c>
       <c r="E83">
-        <v>74.73151132920773</v>
+        <v>121.4761253026601</v>
       </c>
     </row>
     <row r="84">
       <c r="A84">
-        <v>43.91261029176521</v>
+        <v>97.32270947470646</v>
       </c>
       <c r="B84">
-        <v>23.5516541730765</v>
+        <v>81.43360556278276</v>
       </c>
       <c r="C84">
-        <v>64.27356641045391</v>
+        <v>113.2118133866302</v>
       </c>
       <c r="D84">
-        <v>12.77321508024927</v>
+        <v>73.0224220330919</v>
       </c>
       <c r="E84">
-        <v>75.05200550328115</v>
+        <v>121.622996916321</v>
       </c>
     </row>
     <row r="85">
       <c r="A85">
-        <v>43.99768719591108</v>
+        <v>97.32270947470646</v>
       </c>
       <c r="B85">
-        <v>23.33557504723006</v>
+        <v>81.33814833311664</v>
       </c>
       <c r="C85">
-        <v>64.6597993445921</v>
+        <v>113.3072706162963</v>
       </c>
       <c r="D85">
-        <v>12.39771358210418</v>
+        <v>72.87643279844877</v>
       </c>
       <c r="E85">
-        <v>75.59766080971798</v>
+        <v>121.7689861509641</v>
       </c>
     </row>
     <row r="86">
       <c r="A86">
-        <v>43.94102286285469</v>
+        <v>97.32270947470646</v>
       </c>
       <c r="B86">
-        <v>22.93464692331297</v>
+        <v>81.24325778459783</v>
       </c>
       <c r="C86">
-        <v>64.94739880239641</v>
+        <v>113.4021611648151</v>
       </c>
       <c r="D86">
-        <v>11.81454321572915</v>
+        <v>72.73131022783173</v>
       </c>
       <c r="E86">
-        <v>76.06750250998023</v>
+        <v>121.9141087215812</v>
       </c>
     </row>
     <row r="87">
       <c r="A87">
-        <v>44.54476116177315</v>
+        <v>97.32270947470646</v>
       </c>
       <c r="B87">
-        <v>23.23476056654333</v>
+        <v>81.14892394317886</v>
       </c>
       <c r="C87">
-        <v>65.85476175700298</v>
+        <v>113.4964950062341</v>
       </c>
       <c r="D87">
-        <v>11.95392767515605</v>
+        <v>72.58703906725154</v>
       </c>
       <c r="E87">
-        <v>77.13559464839025</v>
+        <v>122.0583798821614</v>
       </c>
     </row>
     <row r="88">
       <c r="A88">
-        <v>44.64351622956059</v>
+        <v>97.32270947470646</v>
       </c>
       <c r="B88">
-        <v>23.02835889038549</v>
+        <v>81.05513712400933</v>
       </c>
       <c r="C88">
-        <v>66.25867356873569</v>
+        <v>113.5902818254036</v>
       </c>
       <c r="D88">
-        <v>11.58598577666254</v>
+        <v>72.44360450500767</v>
       </c>
       <c r="E88">
-        <v>77.70104668245864</v>
+        <v>122.2018144444052</v>
       </c>
     </row>
     <row r="89">
       <c r="A89">
-        <v>44.77861821696654</v>
+        <v>97.32270947470646</v>
       </c>
       <c r="B89">
-        <v>22.85678081932306</v>
+        <v>80.96188791983093</v>
       </c>
       <c r="C89">
-        <v>66.70045561461001</v>
+        <v>113.683531029582</v>
       </c>
       <c r="D89">
-        <v>11.25206108926651</v>
+        <v>72.30099215394006</v>
       </c>
       <c r="E89">
-        <v>78.30517534466657</v>
+        <v>122.3444267954729</v>
       </c>
     </row>
     <row r="90">
       <c r="A90">
-        <v>44.64781030480052</v>
+        <v>97.32270947470646</v>
       </c>
       <c r="B90">
-        <v>22.41777813810015</v>
+        <v>80.86916718996443</v>
       </c>
       <c r="C90">
-        <v>66.87784247150088</v>
+        <v>113.7762517594485</v>
       </c>
       <c r="D90">
-        <v>10.6499099523599</v>
+        <v>72.15918803458621</v>
       </c>
       <c r="E90">
-        <v>78.64571065724113</v>
+        <v>122.4862309148267</v>
       </c>
     </row>
     <row r="91">
       <c r="A91">
-        <v>44.43483869668823</v>
+        <v>97.32270947470646</v>
       </c>
       <c r="B91">
-        <v>21.89510549023042</v>
+        <v>80.77696604985219</v>
       </c>
       <c r="C91">
-        <v>66.97457190314604</v>
+        <v>113.8684528995607</v>
       </c>
       <c r="D91">
-        <v>9.963291477263176</v>
+        <v>72.01817855918775</v>
       </c>
       <c r="E91">
-        <v>78.90638591611329</v>
+        <v>122.6272403902252</v>
       </c>
     </row>
     <row r="92">
       <c r="A92">
-        <v>44.55167247816303</v>
+        <v>97.32270947470646</v>
       </c>
       <c r="B92">
-        <v>21.70074024257194</v>
+        <v>80.68527586112224</v>
       </c>
       <c r="C92">
-        <v>67.40260471375413</v>
+        <v>113.9601430882907</v>
       </c>
       <c r="D92">
-        <v>9.604187414702906</v>
+        <v>71.87795051649481</v>
       </c>
       <c r="E92">
-        <v>79.49915754162316</v>
+        <v>122.7674684329181</v>
       </c>
     </row>
     <row r="93">
       <c r="A93">
-        <v>44.84164923000891</v>
+        <v>97.32270947470646</v>
       </c>
       <c r="B93">
-        <v>21.67802810389971</v>
+        <v>80.59408822214245</v>
       </c>
       <c r="C93">
-        <v>68.00527035611812</v>
+        <v>114.0513307272705</v>
       </c>
       <c r="D93">
-        <v>9.415947776152628</v>
+        <v>71.73849105731988</v>
       </c>
       <c r="E93">
-        <v>80.2673506838652</v>
+        <v>122.906927892093</v>
       </c>
     </row>
     <row r="94">
       <c r="A94">
-        <v>44.59972086482608</v>
+        <v>97.32270947470646</v>
       </c>
       <c r="B94">
-        <v>21.12192896646113</v>
+        <v>80.50339495903577</v>
       </c>
       <c r="C94">
-        <v>68.07751276319104</v>
+        <v>114.1420239903771</v>
       </c>
       <c r="D94">
-        <v>8.693536678029801</v>
+        <v>71.59978768079679</v>
       </c>
       <c r="E94">
-        <v>80.50590505162236</v>
+        <v>123.0456312686161</v>
       </c>
     </row>
     <row r="95">
       <c r="A95">
-        <v>45.09978018119798</v>
+        <v>97.32270947470646</v>
       </c>
       <c r="B95">
-        <v>21.30634346490722</v>
+        <v>80.41318811712911</v>
       </c>
       <c r="C95">
-        <v>68.89321689748874</v>
+        <v>114.2322308322838</v>
       </c>
       <c r="D95">
-        <v>8.710858903149038</v>
+        <v>71.46182822130282</v>
       </c>
       <c r="E95">
-        <v>81.48870145924693</v>
+        <v>123.1835907281101</v>
       </c>
     </row>
     <row r="96">
       <c r="A96">
-        <v>44.96205759258537</v>
+        <v>97.32270947470646</v>
       </c>
       <c r="B96">
-        <v>20.85150970973742</v>
+        <v>80.32345995281054</v>
       </c>
       <c r="C96">
-        <v>69.07260547543331</v>
+        <v>114.3219589966024</v>
       </c>
       <c r="D96">
-        <v>8.088156636575967</v>
+        <v>71.32460083600557</v>
       </c>
       <c r="E96">
-        <v>81.83595854859476</v>
+        <v>123.3208181134073</v>
       </c>
     </row>
     <row r="97">
       <c r="A97">
-        <v>45.04713449673124</v>
+        <v>97.32270947470646</v>
       </c>
       <c r="B97">
-        <v>20.618016661054</v>
+        <v>80.23420292577151</v>
       </c>
       <c r="C97">
-        <v>69.47625233240848</v>
+        <v>114.4112160236414</v>
       </c>
       <c r="D97">
-        <v>7.686022841683972</v>
+        <v>71.18809399299822</v>
       </c>
       <c r="E97">
-        <v>82.40824615177851</v>
+        <v>123.4573249564147</v>
       </c>
     </row>
     <row r="98">
       <c r="A98">
-        <v>44.99047016367485</v>
+        <v>97.32270947470646</v>
       </c>
       <c r="B98">
-        <v>20.20210023251161</v>
+        <v>80.14540969161172</v>
       </c>
       <c r="C98">
-        <v>69.77884009483809</v>
+        <v>114.5000092578012</v>
       </c>
       <c r="D98">
-        <v>7.079929841491683</v>
+        <v>71.0522964599898</v>
       </c>
       <c r="E98">
-        <v>82.90101048585802</v>
+        <v>123.5931224894231</v>
       </c>
     </row>
     <row r="99">
       <c r="A99">
-        <v>45.59420846259332</v>
+        <v>97.32270947470646</v>
       </c>
       <c r="B99">
-        <v>20.48487542704953</v>
+        <v>80.05707309478635</v>
       </c>
       <c r="C99">
-        <v>70.7035414981371</v>
+        <v>114.5883458546266</v>
       </c>
       <c r="D99">
-        <v>7.192797431914919</v>
+        <v>70.91719729351891</v>
       </c>
       <c r="E99">
-        <v>83.9956194932717</v>
+        <v>123.728221655894</v>
       </c>
     </row>
     <row r="100">
       <c r="A100">
-        <v>45.69296353038075</v>
+        <v>97.32270947470646</v>
       </c>
       <c r="B100">
-        <v>20.26121999629478</v>
+        <v>79.96918616187644</v>
       </c>
       <c r="C100">
-        <v>71.12470706446672</v>
+        <v>114.6762327875365</v>
       </c>
       <c r="D100">
-        <v>6.798468192859232</v>
+        <v>70.78278582866153</v>
       </c>
       <c r="E100">
-        <v>84.58745886790227</v>
+        <v>123.8626331207514</v>
       </c>
     </row>
     <row r="101">
       <c r="A101">
-        <v>45.8280655177867</v>
+        <v>97.32270947470646</v>
       </c>
       <c r="B101">
-        <v>20.07247145717958</v>
+        <v>79.88174209516443</v>
       </c>
       <c r="C101">
-        <v>71.58365957839382</v>
+        <v>114.7636768542485</v>
       </c>
       <c r="D101">
-        <v>6.438283540678377</v>
+        <v>70.64905166920582</v>
       </c>
       <c r="E101">
-        <v>85.21784749489501</v>
+        <v>123.9963672802071</v>
       </c>
     </row>
     <row r="102">
       <c r="A102">
-        <v>45.69725760562068</v>
+        <v>97.32270947470646</v>
       </c>
       <c r="B102">
-        <v>19.61638023017209</v>
+        <v>79.7947342664982</v>
       </c>
       <c r="C102">
-        <v>71.77813498106926</v>
+        <v>114.8506846829147</v>
       </c>
       <c r="D102">
-        <v>5.80999772828433</v>
+        <v>70.51598467826787</v>
       </c>
       <c r="E102">
-        <v>85.58451748295703</v>
+        <v>124.129434271145</v>
       </c>
     </row>
     <row r="103">
       <c r="A103">
-        <v>45.48428599750839</v>
+        <v>97.32270947470646</v>
       </c>
       <c r="B103">
-        <v>19.07669963585276</v>
+        <v>79.70815621142789</v>
       </c>
       <c r="C103">
-        <v>71.89187235916403</v>
+        <v>114.937262737985</v>
       </c>
       <c r="D103">
-        <v>5.097367843745765</v>
+        <v>70.38357496932478</v>
       </c>
       <c r="E103">
-        <v>85.87120415127103</v>
+        <v>124.2618439800881</v>
       </c>
     </row>
     <row r="104">
       <c r="A104">
-        <v>45.6011197789832</v>
+        <v>97.32270947470646</v>
       </c>
       <c r="B104">
-        <v>18.8654057576654</v>
+        <v>79.62200162360085</v>
       </c>
       <c r="C104">
-        <v>72.33683380030099</v>
+        <v>115.0234173258121</v>
       </c>
       <c r="D104">
-        <v>4.712373674976554</v>
+        <v>70.25181289764245</v>
       </c>
       <c r="E104">
-        <v>86.48986588298985</v>
+        <v>124.3936060517705</v>
       </c>
     </row>
     <row r="105">
       <c r="A105">
-        <v>45.89109653082907</v>
+        <v>97.32270947470646</v>
       </c>
       <c r="B105">
-        <v>18.82584305876799</v>
+        <v>79.53626434940091</v>
       </c>
       <c r="C105">
-        <v>72.95635000289016</v>
+        <v>115.109154600012</v>
       </c>
       <c r="D105">
-        <v>4.498363328443375</v>
+        <v>70.12068905207707</v>
       </c>
       <c r="E105">
-        <v>87.28382973321477</v>
+        <v>124.5247298973358</v>
       </c>
     </row>
     <row r="106">
       <c r="A106">
-        <v>45.64916816564625</v>
+        <v>97.32270947470646</v>
       </c>
       <c r="B106">
-        <v>18.25297022196178</v>
+        <v>79.45093838281912</v>
       </c>
       <c r="C106">
-        <v>73.04536610933072</v>
+        <v>115.1944805665938</v>
       </c>
       <c r="D106">
-        <v>3.750299070875421</v>
+        <v>69.99019424723066</v>
       </c>
       <c r="E106">
-        <v>87.54803726041706</v>
+        <v>124.6552247021823</v>
       </c>
     </row>
     <row r="107">
       <c r="A107">
-        <v>46.14922748201814</v>
+        <v>97.32270947470646</v>
       </c>
       <c r="B107">
-        <v>18.42068670708499</v>
+        <v>79.36601786054396</v>
       </c>
       <c r="C107">
-        <v>73.8777682569513</v>
+        <v>115.279401088869</v>
       </c>
       <c r="D107">
-        <v>3.742083888366203</v>
+        <v>69.86031951594201</v>
       </c>
       <c r="E107">
-        <v>88.55637107567009</v>
+        <v>124.7850994334709</v>
       </c>
     </row>
     <row r="108">
       <c r="A108">
-        <v>46.01150489340553</v>
+        <v>97.32270947470646</v>
       </c>
       <c r="B108">
-        <v>17.94922948300363</v>
+        <v>79.28149705725934</v>
       </c>
       <c r="C108">
-        <v>74.07378030380743</v>
+        <v>115.3639218921536</v>
       </c>
       <c r="D108">
-        <v>3.093958220003636</v>
+        <v>69.73105610209581</v>
       </c>
       <c r="E108">
-        <v>88.92905156680743</v>
+        <v>124.9143628473171</v>
       </c>
     </row>
     <row r="109">
       <c r="A109">
-        <v>46.0965817975514</v>
+        <v>97.32270947470646</v>
       </c>
       <c r="B109">
-        <v>17.6991863999898</v>
+        <v>79.19737038114017</v>
       </c>
       <c r="C109">
-        <v>74.493977195113</v>
+        <v>115.4480485682727</v>
       </c>
       <c r="D109">
-        <v>2.666513331822387</v>
+        <v>69.60239545373355</v>
       </c>
       <c r="E109">
-        <v>89.52665026328042</v>
+        <v>125.0430234956794</v>
       </c>
     </row>
     <row r="110">
       <c r="A110">
-        <v>46.03991746449501</v>
+        <v>97.32270947470646</v>
       </c>
       <c r="B110">
-        <v>17.26877505715457</v>
+        <v>79.11363236953508</v>
       </c>
       <c r="C110">
-        <v>74.81105987183545</v>
+        <v>115.5317865798778</v>
       </c>
       <c r="D110">
-        <v>2.038252273210304</v>
+        <v>69.47432921645091</v>
       </c>
       <c r="E110">
-        <v>90.04158265577972</v>
+        <v>125.171089732962</v>
       </c>
     </row>
     <row r="111">
       <c r="A111">
-        <v>46.64365576341348</v>
+        <v>97.32270947470646</v>
       </c>
       <c r="B111">
-        <v>17.53507397115606</v>
+        <v>79.03027768482706</v>
       </c>
       <c r="C111">
-        <v>75.75223755567089</v>
+        <v>115.6151412645859</v>
       </c>
       <c r="D111">
-        <v>2.125921567038397</v>
+        <v>69.34684922706711</v>
       </c>
       <c r="E111">
-        <v>91.16138995978855</v>
+        <v>125.2985697223458</v>
       </c>
     </row>
     <row r="112">
       <c r="A112">
-        <v>46.74241083120091</v>
+        <v>97.32270947470646</v>
       </c>
       <c r="B112">
-        <v>17.29501484424826</v>
+        <v>78.9473011104631</v>
       </c>
       <c r="C112">
-        <v>76.18980681815357</v>
+        <v>115.6981178389498</v>
       </c>
       <c r="D112">
-        <v>1.706505039622471</v>
+        <v>69.2199475075528</v>
       </c>
       <c r="E112">
-        <v>91.77831662277936</v>
+        <v>125.4254714418601</v>
       </c>
     </row>
     <row r="113">
       <c r="A113">
-        <v>46.87751281860686</v>
+        <v>97.32270947470646</v>
       </c>
       <c r="B113">
-        <v>17.08993411068576</v>
+        <v>78.86469754714452</v>
       </c>
       <c r="C113">
-        <v>76.66509152652796</v>
+        <v>115.7807214022684</v>
       </c>
       <c r="D113">
-        <v>1.321342451503782</v>
+        <v>69.09361625920363</v>
       </c>
       <c r="E113">
-        <v>92.43368318570994</v>
+        <v>125.5518026902093</v>
       </c>
     </row>
     <row r="114">
       <c r="A114">
-        <v>46.74670490644084</v>
+        <v>97.32270947470646</v>
       </c>
       <c r="B114">
-        <v>16.61758113805522</v>
+        <v>78.78246200916996</v>
       </c>
       <c r="C114">
-        <v>76.87582867482647</v>
+        <v>115.862956940243</v>
       </c>
       <c r="D114">
-        <v>0.6681864453509618</v>
+        <v>68.96784785704733</v>
       </c>
       <c r="E114">
-        <v>92.82522336753073</v>
+        <v>125.6775710923656</v>
       </c>
     </row>
     <row r="115">
       <c r="A115">
-        <v>46.53373329832856</v>
+        <v>97.32270947470646</v>
       </c>
       <c r="B115">
-        <v>16.06170822265834</v>
+        <v>78.70058962092378</v>
       </c>
       <c r="C115">
-        <v>77.00575837399877</v>
+        <v>115.9448293284891</v>
       </c>
       <c r="D115">
-        <v>-0.06920745726642252</v>
+        <v>68.84263484447332</v>
       </c>
       <c r="E115">
-        <v>93.13667405392354</v>
+        <v>125.8027841049396</v>
       </c>
     </row>
     <row r="116">
       <c r="A116">
-        <v>46.65056707980336</v>
+        <v>97.32270947470646</v>
       </c>
       <c r="B116">
-        <v>15.83429045113061</v>
+        <v>78.61907561350287</v>
       </c>
       <c r="C116">
-        <v>77.46684370847611</v>
+        <v>116.02634333591</v>
       </c>
       <c r="D116">
-        <v>-0.4788609929213124</v>
+        <v>68.71796992807364</v>
       </c>
       <c r="E116">
-        <v>93.77999515252803</v>
+        <v>125.9274490213393</v>
       </c>
     </row>
     <row r="117">
       <c r="A117">
-        <v>46.94054383164924</v>
+        <v>97.32270947470646</v>
       </c>
       <c r="B117">
-        <v>15.77867131621644</v>
+        <v>78.5379153214751</v>
       </c>
       <c r="C117">
-        <v>78.10241634708203</v>
+        <v>116.1075036279378</v>
       </c>
       <c r="D117">
-        <v>-0.7174275392665095</v>
+        <v>68.59384597268554</v>
       </c>
       <c r="E117">
-        <v>94.59851520256498</v>
+        <v>126.0515729767274</v>
       </c>
     </row>
     <row r="118">
       <c r="A118">
-        <v>46.69861546646641</v>
+        <v>97.32270947470646</v>
       </c>
       <c r="B118">
-        <v>15.18980855567639</v>
+        <v>78.45710417976325</v>
       </c>
       <c r="C118">
-        <v>78.20742237725642</v>
+        <v>116.1883147696497</v>
       </c>
       <c r="D118">
-        <v>-1.489946274887835</v>
+        <v>68.47025599662595</v>
       </c>
       <c r="E118">
-        <v>94.88717720782066</v>
+        <v>126.175162952787</v>
       </c>
     </row>
     <row r="119">
       <c r="A119">
-        <v>47.1986747828383</v>
+        <v>97.32270947470646</v>
       </c>
       <c r="B119">
-        <v>15.34160070870942</v>
+        <v>78.37663772064874</v>
       </c>
       <c r="C119">
-        <v>79.05574885696719</v>
+        <v>116.2687812287642</v>
       </c>
       <c r="D119">
-        <v>-1.522515621688008</v>
+        <v>68.34719316710894</v>
       </c>
       <c r="E119">
-        <v>95.91986518736462</v>
+        <v>126.298225782304</v>
       </c>
     </row>
     <row r="120">
       <c r="A120">
-        <v>47.06095219422569</v>
+        <v>97.32270947470646</v>
       </c>
       <c r="B120">
-        <v>14.85428384701993</v>
+        <v>78.29651157088927</v>
       </c>
       <c r="C120">
-        <v>79.26762054143146</v>
+        <v>116.3489073785236</v>
       </c>
       <c r="D120">
-        <v>-2.194896512669423</v>
+        <v>68.22465079583752</v>
       </c>
       <c r="E120">
-        <v>96.31680090112081</v>
+        <v>126.4207681535754</v>
       </c>
     </row>
     <row r="121">
       <c r="A121">
-        <v>47.14602909837156</v>
+        <v>97.32270947470646</v>
       </c>
       <c r="B121">
-        <v>14.58844494631681</v>
+        <v>78.21672144894522</v>
       </c>
       <c r="C121">
-        <v>79.70361325042632</v>
+        <v>116.4286975004677</v>
       </c>
       <c r="D121">
-        <v>-2.646499019326363</v>
+        <v>68.10262233476195</v>
       </c>
       <c r="E121">
-        <v>96.93855721606948</v>
+        <v>126.542796614651</v>
       </c>
     </row>
     <row r="122">
       <c r="A122">
-        <v>47.08936476531518</v>
+        <v>97.32270947470646</v>
       </c>
       <c r="B122">
-        <v>14.144008631006</v>
+        <v>78.13726316231003</v>
       </c>
       <c r="C122">
-        <v>80.03472089962435</v>
+        <v>116.5081557871029</v>
       </c>
       <c r="D122">
-        <v>-3.296209422370119</v>
+        <v>67.98110137199674</v>
       </c>
       <c r="E122">
-        <v>97.47493895300048</v>
+        <v>126.6643175774162</v>
       </c>
     </row>
     <row r="123">
       <c r="A123">
-        <v>47.69310306423364</v>
+        <v>97.32270947470646</v>
       </c>
       <c r="B123">
-        <v>14.3945818247841</v>
+        <v>78.0581326049395</v>
       </c>
       <c r="C123">
-        <v>80.99162430368318</v>
+        <v>116.5872863444734</v>
       </c>
       <c r="D123">
-        <v>-3.232590542194878</v>
+        <v>67.86008162788922</v>
       </c>
       <c r="E123">
-        <v>98.61879667066216</v>
+        <v>126.7853373215237</v>
       </c>
     </row>
     <row r="124">
       <c r="A124">
-        <v>47.79185813202107</v>
+        <v>97.32270947470646</v>
       </c>
       <c r="B124">
-        <v>14.13885995282135</v>
+        <v>77.97932575477591</v>
       </c>
       <c r="C124">
-        <v>81.44485631122079</v>
+        <v>116.666093194637</v>
       </c>
       <c r="D124">
-        <v>-3.675961171054759</v>
+        <v>67.73955695123288</v>
       </c>
       <c r="E124">
-        <v>99.2596774350969</v>
+        <v>126.90586199818</v>
       </c>
     </row>
     <row r="125">
       <c r="A125">
-        <v>47.92696011942702</v>
+        <v>97.32270947470646</v>
       </c>
       <c r="B125">
-        <v>13.91817859977435</v>
+        <v>77.90083867136241</v>
       </c>
       <c r="C125">
-        <v>81.93574163907969</v>
+        <v>116.7445802780505</v>
       </c>
       <c r="D125">
-        <v>-4.084982847756542</v>
+        <v>67.61952131561904</v>
       </c>
       <c r="E125">
-        <v>99.93890308661059</v>
+        <v>127.0258976337939</v>
       </c>
     </row>
     <row r="126">
       <c r="A126">
-        <v>47.796152207261</v>
+        <v>97.32270947470646</v>
       </c>
       <c r="B126">
-        <v>13.43028630473521</v>
+        <v>77.8226674935439</v>
       </c>
       <c r="C126">
-        <v>82.16201810978677</v>
+        <v>116.822751455869</v>
       </c>
       <c r="D126">
-        <v>-4.761904196704649</v>
+        <v>67.49996881592057</v>
       </c>
       <c r="E126">
-        <v>100.3542086112266</v>
+        <v>127.1454501334923</v>
       </c>
     </row>
     <row r="127">
       <c r="A127">
-        <v>47.58318059914872</v>
+        <v>97.32270947470646</v>
       </c>
       <c r="B127">
-        <v>12.85893455585027</v>
+        <v>77.74480843725057</v>
       </c>
       <c r="C127">
-        <v>82.30742664244717</v>
+        <v>116.9006105121623</v>
       </c>
       <c r="D127">
-        <v>-5.522970932296502</v>
+        <v>67.38089366490208</v>
       </c>
       <c r="E127">
-        <v>100.6893321305939</v>
+        <v>127.2645252845108</v>
       </c>
     </row>
     <row r="128">
       <c r="A128">
-        <v>47.70001438062351</v>
+        <v>97.32270947470646</v>
       </c>
       <c r="B128">
-        <v>12.6160976512094</v>
+        <v>77.66725779336038</v>
       </c>
       <c r="C128">
-        <v>82.78393111003763</v>
+        <v>116.9781611560525</v>
       </c>
       <c r="D128">
-        <v>-5.956205997081462</v>
+        <v>67.26229018995093</v>
       </c>
       <c r="E128">
-        <v>101.3562347583285</v>
+        <v>127.383128759462</v>
       </c>
     </row>
     <row r="129">
       <c r="A129">
-        <v>47.9899911324694</v>
+        <v>97.32270947470646</v>
       </c>
       <c r="B129">
-        <v>12.54511831392546</v>
+        <v>77.59001192563719</v>
       </c>
       <c r="C129">
-        <v>83.43486395101334</v>
+        <v>117.0554070237757</v>
       </c>
       <c r="D129">
-        <v>-6.218263945762253</v>
+        <v>67.14415282992385</v>
       </c>
       <c r="E129">
-        <v>102.1982462107011</v>
+        <v>127.5012661194891</v>
       </c>
     </row>
     <row r="130">
       <c r="A130">
-        <v>47.74806276728656</v>
+        <v>97.32270947470646</v>
       </c>
       <c r="B130">
-        <v>11.94095353037714</v>
+        <v>77.51306726874124</v>
       </c>
       <c r="C130">
-        <v>83.55517200419598</v>
+        <v>117.1323516806717</v>
       </c>
       <c r="D130">
-        <v>-7.014185106064048</v>
+        <v>67.02647613210424</v>
       </c>
       <c r="E130">
-        <v>102.5103106406372</v>
+        <v>127.6189428173087</v>
       </c>
     </row>
     <row r="131">
       <c r="A131">
-        <v>48.24812208365847</v>
+        <v>97.32270947470646</v>
       </c>
       <c r="B131">
-        <v>12.07750110599685</v>
+        <v>77.43642032630895</v>
       </c>
       <c r="C131">
-        <v>84.41874306132009</v>
+        <v>117.208998623104</v>
       </c>
       <c r="D131">
-        <v>-7.070069022088724</v>
+        <v>66.90925474926541</v>
       </c>
       <c r="E131">
-        <v>103.5663131894057</v>
+        <v>127.7361642001475</v>
       </c>
     </row>
     <row r="132">
       <c r="A132">
-        <v>48.11039949504585</v>
+        <v>97.32270947470646</v>
       </c>
       <c r="B132">
-        <v>11.57499639573146</v>
+        <v>77.360067669099</v>
       </c>
       <c r="C132">
-        <v>84.64580259436023</v>
+        <v>117.2853512803139</v>
       </c>
       <c r="D132">
-        <v>-7.765677723024645</v>
+        <v>66.79248343683535</v>
       </c>
       <c r="E132">
-        <v>103.9864767131163</v>
+        <v>127.8529355125776</v>
       </c>
     </row>
     <row r="133">
       <c r="A133">
-        <v>48.19547639919173</v>
+        <v>97.32270947470646</v>
       </c>
       <c r="B133">
-        <v>11.29402567496226</v>
+        <v>77.28400593320207</v>
       </c>
       <c r="C133">
-        <v>85.09692712342118</v>
+        <v>117.3614130162108</v>
       </c>
       <c r="D133">
-        <v>-8.240422351424826</v>
+        <v>66.67615705015872</v>
       </c>
       <c r="E133">
-        <v>104.6313751498083</v>
+        <v>127.9692618992542</v>
       </c>
     </row>
     <row r="134">
       <c r="A134">
-        <v>48.13881206613533</v>
+        <v>97.32270947470646</v>
       </c>
       <c r="B134">
-        <v>10.83600445077605</v>
+        <v>77.20823181831143</v>
       </c>
       <c r="C134">
-        <v>85.44161968149462</v>
+        <v>117.4371871311015</v>
       </c>
       <c r="D134">
-        <v>-8.910909079701916</v>
+        <v>66.56027054185195</v>
       </c>
       <c r="E134">
-        <v>105.1885332119726</v>
+        <v>128.085148407561</v>
       </c>
     </row>
     <row r="135">
       <c r="A135">
-        <v>48.7425503650538</v>
+        <v>97.32270947470646</v>
       </c>
       <c r="B135">
-        <v>11.07151162456037</v>
+        <v>77.13274208605203</v>
       </c>
       <c r="C135">
-        <v>86.41358910554723</v>
+        <v>117.5126768633609</v>
       </c>
       <c r="D135">
-        <v>-8.870331688743391</v>
+        <v>66.44481895924777</v>
       </c>
       <c r="E135">
-        <v>106.355432418851</v>
+        <v>128.2005999901651</v>
       </c>
     </row>
     <row r="136">
       <c r="A136">
-        <v>48.84130543284123</v>
+        <v>97.32270947470646</v>
       </c>
       <c r="B136">
-        <v>10.80077897408536</v>
+        <v>77.05753355836556</v>
       </c>
       <c r="C136">
-        <v>86.8818318915971</v>
+        <v>117.5878853910474</v>
       </c>
       <c r="D136">
-        <v>-9.336659322264609</v>
+        <v>66.32979744192542</v>
       </c>
       <c r="E136">
-        <v>107.0192701879471</v>
+        <v>128.3156215074875</v>
       </c>
     </row>
     <row r="137">
       <c r="A137">
-        <v>48.97640742024718</v>
+        <v>97.32270947470646</v>
       </c>
       <c r="B137">
-        <v>10.56514140501781</v>
+        <v>76.98260311594922</v>
       </c>
       <c r="C137">
-        <v>87.38767343547656</v>
+        <v>117.6628158334637</v>
       </c>
       <c r="D137">
-        <v>-9.76855455749763</v>
+        <v>66.21520121932295</v>
       </c>
       <c r="E137">
-        <v>107.721369397992</v>
+        <v>128.43021773009</v>
       </c>
     </row>
     <row r="138">
       <c r="A138">
-        <v>48.84559950808116</v>
+        <v>97.32270947470646</v>
       </c>
       <c r="B138">
-        <v>10.06234679279761</v>
+        <v>76.90794769674611</v>
       </c>
       <c r="C138">
-        <v>87.6288522233647</v>
+        <v>117.7374712526668</v>
       </c>
       <c r="D138">
-        <v>-10.46826703381537</v>
+        <v>66.10102560842846</v>
       </c>
       <c r="E138">
-        <v>108.1594660499777</v>
+        <v>128.5443933409844</v>
       </c>
     </row>
     <row r="139">
       <c r="A139">
-        <v>48.63262789996887</v>
+        <v>97.32270947470646</v>
       </c>
       <c r="B139">
-        <v>9.47614597674994</v>
+        <v>76.83356429448517</v>
       </c>
       <c r="C139">
-        <v>87.7891098231878</v>
+        <v>117.8118546549277</v>
       </c>
       <c r="D139">
-        <v>-11.25204345790155</v>
+        <v>65.98726601154715</v>
       </c>
       <c r="E139">
-        <v>108.5172992578393</v>
+        <v>128.6581529378658</v>
       </c>
     </row>
     <row r="140">
       <c r="A140">
-        <v>48.74946168144368</v>
+        <v>97.32270947470646</v>
       </c>
       <c r="B140">
-        <v>9.218512620489634</v>
+        <v>76.75944995726859</v>
       </c>
       <c r="C140">
-        <v>88.28041074239772</v>
+        <v>117.8859689921443</v>
       </c>
       <c r="D140">
-        <v>-11.70790774265144</v>
+        <v>65.87391791414082</v>
       </c>
       <c r="E140">
-        <v>109.2068311055388</v>
+        <v>128.7715010352721</v>
       </c>
     </row>
     <row r="141">
       <c r="A141">
-        <v>49.03943843328955</v>
+        <v>97.32270947470646</v>
       </c>
       <c r="B141">
-        <v>9.132788826535659</v>
+        <v>76.68560178620481</v>
       </c>
       <c r="C141">
-        <v>88.94608804004345</v>
+        <v>117.9598171632081</v>
       </c>
       <c r="D141">
-        <v>-11.99251539188413</v>
+        <v>65.76097688273752</v>
       </c>
       <c r="E141">
-        <v>110.0713922584633</v>
+        <v>128.8844420666754</v>
       </c>
     </row>
   </sheetData>
